--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value165.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value165.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.572482136697678</v>
+        <v>1.16690719127655</v>
       </c>
       <c r="B1">
-        <v>1.825270817088636</v>
+        <v>4.087239742279053</v>
       </c>
       <c r="C1">
-        <v>1.815040912025203</v>
+        <v>3.422869443893433</v>
       </c>
       <c r="D1">
-        <v>2.272688221560784</v>
+        <v>2.406485557556152</v>
       </c>
       <c r="E1">
-        <v>1.512481796862251</v>
+        <v>2.171691417694092</v>
       </c>
     </row>
   </sheetData>
